--- a/Influ_Lists.xlsx
+++ b/Influ_Lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Streamlit\Beta-test1\beta-test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D82DBD-E6B5-4511-BD49-B4DEA6FFDAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8239AA-3D31-4CB3-98A9-0E0127E13CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,7 +687,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="H1" sqref="H1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
